--- a/Rol Tercero/Cp_login/CP_Login.xlsx
+++ b/Rol Tercero/Cp_login/CP_Login.xlsx
@@ -5,15 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Documents\Prueba\Rol_modulo\Cp_login\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Documents\Prueba\Rol Tercero\Cp_login\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A30C9360-6B4B-4C38-B4D0-9BCBA292DA3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C13B72AD-E008-499F-9F63-59A418BE4628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-90" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-90" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Reportado" sheetId="4" r:id="rId1"/>
+    <sheet name="Abierto" sheetId="3" r:id="rId2"/>
+    <sheet name="Asignado" sheetId="2" r:id="rId3"/>
+    <sheet name="Solucionado" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,9 +28,66 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>este es el caso de prueba de logins</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="20">
+  <si>
+    <t>Id: Cp_login01</t>
+  </si>
+  <si>
+    <t>Fecha: 28/04/23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Titulo: Defecto Scroll en login </t>
+  </si>
+  <si>
+    <t>Responsable: Tester</t>
+  </si>
+  <si>
+    <t>Responsable: Asignacion de desarrollador</t>
+  </si>
+  <si>
+    <t>Prioridad: Baja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Breve resumen:  barra lateral y horizontal para mover la pantalla se ven muy poco </t>
+  </si>
+  <si>
+    <t>Resultados Obtenidos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resultados esperados:Identificacion de scroll </t>
+  </si>
+  <si>
+    <t>Estado: Reportado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descripcion:  En el loggeo al inicio la barra lateral y horizontal para mover la pantalla se ven muy poco y no son tan llamativas por lo cual el usuario podría pensar que no existen, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conclusiones: La novedad solo se presenta en la version de escritorio en version movil no se evidencia </t>
+  </si>
+  <si>
+    <t>Estado: Abierto</t>
+  </si>
+  <si>
+    <t>Recomendaciones: informacion de como se puede replicar el error o informacion con la cual se llego a la novedad</t>
+  </si>
+  <si>
+    <t>Estado: Asignado</t>
+  </si>
+  <si>
+    <t>Resultados Obtenidos: scroll no funciona correctamente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recomendaciones: Enseñansa </t>
+  </si>
+  <si>
+    <t>Conclusiones: Descripcion del porque de la novedad</t>
+  </si>
+  <si>
+    <t>Resultados Obtenidos: Se observa que el scrill si funciona</t>
+  </si>
+  <si>
+    <t>Estado: Solucionado</t>
   </si>
 </sst>
 </file>
@@ -51,10 +111,105 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -63,8 +218,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -344,21 +529,1366 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC9AC78B-FDFA-4470-91B0-8ABF10D58A57}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="B2:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="9" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D9" t="s">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="B12:J16"/>
+    <mergeCell ref="B17:E20"/>
+    <mergeCell ref="F17:J20"/>
+    <mergeCell ref="B21:J24"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:J3"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="D4:J5"/>
+    <mergeCell ref="B6:J9"/>
+    <mergeCell ref="B10:E11"/>
+    <mergeCell ref="F10:J11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4E353FC-EE03-4B22-BE6B-903A4580BD21}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="B2:J28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17:J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="B12:J16"/>
+    <mergeCell ref="B17:E20"/>
+    <mergeCell ref="F17:J20"/>
+    <mergeCell ref="B21:J24"/>
+    <mergeCell ref="B25:J28"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:J3"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="D4:J5"/>
+    <mergeCell ref="B6:J9"/>
+    <mergeCell ref="B10:E11"/>
+    <mergeCell ref="F10:J11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{246A5852-B180-44FB-AE74-6728B6FE2A6F}">
+  <sheetPr>
+    <tabColor theme="8" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="B2:J28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25:J28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="2" spans="2:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B3" s="5"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="2:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B5" s="5"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" spans="2:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="10"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="10"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="2:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" spans="2:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="10"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="10"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="10"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B16" s="5"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="7"/>
+    </row>
+    <row r="17" spans="2:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B18" s="8"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B19" s="8"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B20" s="5"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="2:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="4"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="10"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="10"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B24" s="5"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="7"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="B12:J16"/>
+    <mergeCell ref="B17:E20"/>
+    <mergeCell ref="F17:J20"/>
+    <mergeCell ref="B21:J24"/>
+    <mergeCell ref="B25:J28"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:J3"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="D4:J5"/>
+    <mergeCell ref="B6:J9"/>
+    <mergeCell ref="B10:E11"/>
+    <mergeCell ref="F10:J11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="B2:J28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N43" sqref="N43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="B21:J24"/>
+    <mergeCell ref="B25:J28"/>
+    <mergeCell ref="B12:J16"/>
+    <mergeCell ref="B17:E20"/>
+    <mergeCell ref="F17:J20"/>
+    <mergeCell ref="B10:E11"/>
+    <mergeCell ref="F10:J11"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:J3"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="D4:J5"/>
+    <mergeCell ref="B6:J9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Rol Tercero/Cp_login/CP_Login.xlsx
+++ b/Rol Tercero/Cp_login/CP_Login.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Documents\Prueba\Rol Tercero\Cp_login\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C13B72AD-E008-499F-9F63-59A418BE4628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE0C1FE-3F4E-4D91-A949-8CF6C117E7D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-90" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-90" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reportado" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="21">
   <si>
     <t>Id: Cp_login01</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>Estado: Solucionado</t>
+  </si>
+  <si>
+    <t>Responsable: Maria</t>
   </si>
 </sst>
 </file>
@@ -223,13 +226,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -239,15 +251,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -535,8 +538,8 @@
   </sheetPr>
   <dimension ref="B2:J24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21:J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -573,7 +576,7 @@
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -842,7 +845,7 @@
   <dimension ref="B2:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17:J20"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1170,18 +1173,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B10:E11"/>
+    <mergeCell ref="F10:J11"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:J3"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="D4:J5"/>
+    <mergeCell ref="B6:J9"/>
     <mergeCell ref="B12:J16"/>
     <mergeCell ref="B17:E20"/>
     <mergeCell ref="F17:J20"/>
     <mergeCell ref="B21:J24"/>
     <mergeCell ref="B25:J28"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:J3"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="D4:J5"/>
-    <mergeCell ref="B6:J9"/>
-    <mergeCell ref="B10:E11"/>
-    <mergeCell ref="F10:J11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1201,192 +1204,192 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="2" spans="2:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="4"/>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B3" s="5"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="10"/>
     </row>
     <row r="4" spans="2:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="4"/>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B5" s="5"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="10"/>
     </row>
     <row r="6" spans="2:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="10"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="7"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="10"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="7"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="10"/>
     </row>
     <row r="10" spans="2:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B11" s="5"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="7"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="10"/>
     </row>
     <row r="12" spans="2:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="10"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="7"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="10"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="7"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="10"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="7"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B16" s="5"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="10"/>
     </row>
     <row r="17" spans="2:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
       <c r="E17" s="4"/>
       <c r="F17" s="1" t="s">
         <v>15</v>
@@ -1397,10 +1400,10 @@
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="10"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="7"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -1408,10 +1411,10 @@
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B19" s="8"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="10"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="7"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -1419,10 +1422,10 @@
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B20" s="5"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="7"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="10"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -1430,50 +1433,50 @@
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="2:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
       <c r="J21" s="4"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="10"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="7"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="10"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="7"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B24" s="5"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="10"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="1" t="s">
@@ -1523,18 +1526,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B10:E11"/>
+    <mergeCell ref="F10:J11"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:J3"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="D4:J5"/>
+    <mergeCell ref="B6:J9"/>
     <mergeCell ref="B12:J16"/>
     <mergeCell ref="B17:E20"/>
     <mergeCell ref="F17:J20"/>
     <mergeCell ref="B21:J24"/>
     <mergeCell ref="B25:J28"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:J3"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="D4:J5"/>
-    <mergeCell ref="B6:J9"/>
-    <mergeCell ref="B10:E11"/>
-    <mergeCell ref="F10:J11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1547,7 +1550,7 @@
   </sheetPr>
   <dimension ref="B2:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N43" sqref="N43"/>
     </sheetView>
   </sheetViews>
@@ -1876,11 +1879,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B21:J24"/>
-    <mergeCell ref="B25:J28"/>
-    <mergeCell ref="B12:J16"/>
-    <mergeCell ref="B17:E20"/>
-    <mergeCell ref="F17:J20"/>
     <mergeCell ref="B10:E11"/>
     <mergeCell ref="F10:J11"/>
     <mergeCell ref="B2:C3"/>
@@ -1888,6 +1886,11 @@
     <mergeCell ref="B4:C5"/>
     <mergeCell ref="D4:J5"/>
     <mergeCell ref="B6:J9"/>
+    <mergeCell ref="B21:J24"/>
+    <mergeCell ref="B25:J28"/>
+    <mergeCell ref="B12:J16"/>
+    <mergeCell ref="B17:E20"/>
+    <mergeCell ref="F17:J20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
